--- a/UpLoads/Files/ImportCauHoi.xlsx
+++ b/UpLoads/Files/ImportCauHoi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CE3086-AFBC-454C-AF53-EA6B47720759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8085" yWindow="6375" windowWidth="14865" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>ChuongId</t>
-  </si>
-  <si>
     <t>NoiDung</t>
   </si>
   <si>
@@ -49,12 +47,15 @@
   </si>
   <si>
     <t>SoLanTraLoiDung</t>
+  </si>
+  <si>
+    <t>MaChuong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,11 +373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,34 +391,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
